--- a/bin/Debug/Classeur2.xlsx
+++ b/bin/Debug/Classeur2.xlsx
@@ -1,25 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\melek\Downloads\finaaaaaaaaaaaaal\controlChart-vbnet-main\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brahmi\source\repos\testExGraph\controlChart-vbnet\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC725C0-421A-46C0-89B7-F04406D77CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Exemple2_CSV" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">Exemple2_CSV!$A$1:$T$133</definedName>
+    <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">Exemple2_CSV!$A$1:$T$138</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,8 +37,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - Exemple2_CSV" description="Connexion à la requête « Exemple2_CSV » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" keepAlive="1" name="Requête - Exemple2_CSV" description="Connexion à la requête « Exemple2_CSV » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=Exemple2_CSV;Extended Properties=&quot;&quot;" command="SELECT * FROM [Exemple2_CSV]"/>
   </connection>
 </connections>
@@ -369,10 +368,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -407,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,7 +474,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="175">
     <queryTableFields count="20">
       <queryTableField id="1" name="Time" tableColumnId="1"/>
@@ -660,29 +659,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Exemple2_CSV" displayName="Exemple2_CSV" ref="A1:T133" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:T133" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Exemple2_CSV" displayName="Exemple2_CSV" ref="A1:T138" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:T138"/>
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Time" queryTableFieldId="1" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="Unit N°" queryTableFieldId="4"/>
-    <tableColumn id="118" xr3:uid="{00000000-0010-0000-0000-000076000000}" uniqueName="118" name="Point1_Phase1_Error_U" queryTableFieldId="118"/>
-    <tableColumn id="132" xr3:uid="{00000000-0010-0000-0000-000084000000}" uniqueName="132" name="Point2_Phase1_Error_U" queryTableFieldId="132"/>
-    <tableColumn id="146" xr3:uid="{00000000-0010-0000-0000-000092000000}" uniqueName="146" name="Point3_Phase1_Error_U" queryTableFieldId="146"/>
-    <tableColumn id="160" xr3:uid="{00000000-0010-0000-0000-0000A0000000}" uniqueName="160" name="Point4_Phase1_Error_U" queryTableFieldId="160" dataDxfId="14"/>
-    <tableColumn id="161" xr3:uid="{00000000-0010-0000-0000-0000A1000000}" uniqueName="161" name="Point4_Phase1_Error_I" queryTableFieldId="161" dataDxfId="13"/>
-    <tableColumn id="162" xr3:uid="{00000000-0010-0000-0000-0000A2000000}" uniqueName="162" name="Point4_Phase1_Error_P" queryTableFieldId="162" dataDxfId="12"/>
-    <tableColumn id="163" xr3:uid="{00000000-0010-0000-0000-0000A3000000}" uniqueName="163" name="Point4_Phase1_Error_Q" queryTableFieldId="163" dataDxfId="11"/>
-    <tableColumn id="164" xr3:uid="{00000000-0010-0000-0000-0000A4000000}" uniqueName="164" name="Point4_Phase2_Error_U" queryTableFieldId="164" dataDxfId="10"/>
-    <tableColumn id="165" xr3:uid="{00000000-0010-0000-0000-0000A5000000}" uniqueName="165" name="Point4_Phase2_Error_I" queryTableFieldId="165" dataDxfId="9"/>
-    <tableColumn id="166" xr3:uid="{00000000-0010-0000-0000-0000A6000000}" uniqueName="166" name="Point4_Phase2_Error_P" queryTableFieldId="166" dataDxfId="8"/>
-    <tableColumn id="167" xr3:uid="{00000000-0010-0000-0000-0000A7000000}" uniqueName="167" name="Point4_Phase2_Error_Q" queryTableFieldId="167" dataDxfId="7"/>
-    <tableColumn id="168" xr3:uid="{00000000-0010-0000-0000-0000A8000000}" uniqueName="168" name="Point4_Phase3_Error_U" queryTableFieldId="168" dataDxfId="6"/>
-    <tableColumn id="169" xr3:uid="{00000000-0010-0000-0000-0000A9000000}" uniqueName="169" name="Point4_Phase3_Error_I" queryTableFieldId="169" dataDxfId="5"/>
-    <tableColumn id="170" xr3:uid="{00000000-0010-0000-0000-0000AA000000}" uniqueName="170" name="Point4_Phase3_Error_P" queryTableFieldId="170" dataDxfId="4"/>
-    <tableColumn id="171" xr3:uid="{00000000-0010-0000-0000-0000AB000000}" uniqueName="171" name="Point4_Phase3_Error_Q" queryTableFieldId="171" dataDxfId="3"/>
-    <tableColumn id="172" xr3:uid="{00000000-0010-0000-0000-0000AC000000}" uniqueName="172" name="Point4_Error_P_Tot" queryTableFieldId="172" dataDxfId="2"/>
-    <tableColumn id="173" xr3:uid="{00000000-0010-0000-0000-0000AD000000}" uniqueName="173" name="Point4_Error_Q_Tot" queryTableFieldId="173" dataDxfId="1"/>
-    <tableColumn id="174" xr3:uid="{00000000-0010-0000-0000-0000AE000000}" uniqueName="174" name="Temps_Test" queryTableFieldId="174" dataDxfId="0"/>
+    <tableColumn id="1" uniqueName="1" name="Time" queryTableFieldId="1" dataDxfId="15"/>
+    <tableColumn id="4" uniqueName="4" name="Unit N°" queryTableFieldId="4"/>
+    <tableColumn id="118" uniqueName="118" name="Point1_Phase1_Error_U" queryTableFieldId="118"/>
+    <tableColumn id="132" uniqueName="132" name="Point2_Phase1_Error_U" queryTableFieldId="132"/>
+    <tableColumn id="146" uniqueName="146" name="Point3_Phase1_Error_U" queryTableFieldId="146"/>
+    <tableColumn id="160" uniqueName="160" name="Point4_Phase1_Error_U" queryTableFieldId="160" dataDxfId="14"/>
+    <tableColumn id="161" uniqueName="161" name="Point4_Phase1_Error_I" queryTableFieldId="161" dataDxfId="13"/>
+    <tableColumn id="162" uniqueName="162" name="Point4_Phase1_Error_P" queryTableFieldId="162" dataDxfId="12"/>
+    <tableColumn id="163" uniqueName="163" name="Point4_Phase1_Error_Q" queryTableFieldId="163" dataDxfId="11"/>
+    <tableColumn id="164" uniqueName="164" name="Point4_Phase2_Error_U" queryTableFieldId="164" dataDxfId="10"/>
+    <tableColumn id="165" uniqueName="165" name="Point4_Phase2_Error_I" queryTableFieldId="165" dataDxfId="9"/>
+    <tableColumn id="166" uniqueName="166" name="Point4_Phase2_Error_P" queryTableFieldId="166" dataDxfId="8"/>
+    <tableColumn id="167" uniqueName="167" name="Point4_Phase2_Error_Q" queryTableFieldId="167" dataDxfId="7"/>
+    <tableColumn id="168" uniqueName="168" name="Point4_Phase3_Error_U" queryTableFieldId="168" dataDxfId="6"/>
+    <tableColumn id="169" uniqueName="169" name="Point4_Phase3_Error_I" queryTableFieldId="169" dataDxfId="5"/>
+    <tableColumn id="170" uniqueName="170" name="Point4_Phase3_Error_P" queryTableFieldId="170" dataDxfId="4"/>
+    <tableColumn id="171" uniqueName="171" name="Point4_Phase3_Error_Q" queryTableFieldId="171" dataDxfId="3"/>
+    <tableColumn id="172" uniqueName="172" name="Point4_Error_P_Tot" queryTableFieldId="172" dataDxfId="2"/>
+    <tableColumn id="173" uniqueName="173" name="Point4_Error_Q_Tot" queryTableFieldId="173" dataDxfId="1"/>
+    <tableColumn id="174" uniqueName="174" name="Temps_Test" queryTableFieldId="174" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -984,11 +983,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T133"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="G111" sqref="G111"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9256,6 +9255,157 @@
         <v>105</v>
       </c>
     </row>
+    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>0.64143518518518516</v>
+      </c>
+      <c r="B134">
+        <v>3</v>
+      </c>
+      <c r="C134">
+        <v>9.6600199999999997E-2</v>
+      </c>
+      <c r="D134">
+        <v>9.1918E-2</v>
+      </c>
+      <c r="E134">
+        <v>1.8603100000000001E-2</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+    </row>
+    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>0.64143518518518516</v>
+      </c>
+      <c r="B135">
+        <v>3</v>
+      </c>
+      <c r="C135">
+        <v>9.6600199999999997E-2</v>
+      </c>
+      <c r="D135">
+        <v>9.1918E-2</v>
+      </c>
+      <c r="E135">
+        <v>1.8603100000000001E-2</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+    </row>
+    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>0.64143518518518516</v>
+      </c>
+      <c r="B136">
+        <v>3</v>
+      </c>
+      <c r="C136">
+        <v>9.6600199999999997E-2</v>
+      </c>
+      <c r="D136">
+        <v>9.1918E-2</v>
+      </c>
+      <c r="E136">
+        <v>1.8603100000000001E-2</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+    </row>
+    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>0.64143518518518516</v>
+      </c>
+      <c r="B137">
+        <v>3</v>
+      </c>
+      <c r="C137">
+        <v>9.6600199999999997E-2</v>
+      </c>
+      <c r="D137">
+        <v>9.1918E-2</v>
+      </c>
+      <c r="E137">
+        <v>1.8603100000000001E-2</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+    </row>
+    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>0.64212962962962961</v>
+      </c>
+      <c r="B138">
+        <v>5</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -9265,7 +9415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/bin/Debug/Classeur2.xlsx
+++ b/bin/Debug/Classeur2.xlsx
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A139" sqref="A139:E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
